--- a/informe_GoldenStateWarriors.xlsx
+++ b/informe_GoldenStateWarriors.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walth\Documents\NetBeansProjects\InterfazBaloncesto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDFE65E-4246-4D68-817D-63ACC16EC6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5760" yWindow="1788" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Stephen Curry" r:id="rId5" sheetId="2"/>
+    <sheet name="final" sheetId="1" r:id="rId1"/>
+    <sheet name="Stephen Curry" sheetId="2" r:id="rId2"/>
+    <sheet name="Draymond Green" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>TCA</t>
   </si>
@@ -50,12 +66,30 @@
   </si>
   <si>
     <t>promedios</t>
+  </si>
+  <si>
+    <t>Jugador</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Andrew Wiggins</t>
+  </si>
+  <si>
+    <t>Chris Paul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -367,24 +401,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="17.109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <f>'Stephen Curry'!A5</f>
+        <v>190.33333333333334</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <f>'Stephen Curry'!B5</f>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <f>'Stephen Curry'!C5</f>
+        <v>386.3333333333333</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <f>'Stephen Curry'!D5</f>
+        <v>82.33333333333333</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <f>'Stephen Curry'!E5</f>
+        <v>445.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <f>'Stephen Curry'!F5</f>
+        <v>41.529999999999994</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <f>'Stephen Curry'!G5</f>
+        <v>43.803333333333335</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <f>'Stephen Curry'!H5</f>
+        <v>46.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <f>'Stephen Curry'!I5</f>
+        <v>151.66666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <f>'Draymond Green'!A4</f>
+        <v>49.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <f>'Draymond Green'!B4</f>
+        <v>6.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <f>'Draymond Green'!C4</f>
+        <v>169.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <f>'Draymond Green'!D4</f>
+        <v>170.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <f>'Draymond Green'!E4</f>
+        <v>158.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <f>'Draymond Green'!F4</f>
+        <v>28.99</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <f>'Draymond Green'!G4</f>
+        <v>30.77</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <f>'Draymond Green'!H4</f>
+        <v>32.4</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <f>'Draymond Green'!I4</f>
+        <v>-39.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
+        <v>488</v>
+      </c>
+      <c r="B2" s="0">
+        <v>56</v>
+      </c>
+      <c r="C2" s="0">
+        <v>556</v>
+      </c>
+      <c r="D2" s="0">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1066</v>
+      </c>
+      <c r="F2" s="0">
+        <v>87.77</v>
+      </c>
+      <c r="G2" s="0">
+        <v>92.81</v>
+      </c>
+      <c r="H2" s="0">
+        <v>93.35</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="0">
+        <v>34</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>434</v>
+      </c>
+      <c r="D3" s="0">
+        <v>43</v>
+      </c>
+      <c r="E3" s="0">
+        <v>111</v>
+      </c>
+      <c r="F3" s="0">
+        <v>7.83</v>
+      </c>
+      <c r="G3" s="0">
+        <v>7.83</v>
+      </c>
+      <c r="H3" s="0">
+        <v>12.25</v>
+      </c>
+      <c r="I3" s="0">
+        <v>-539</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>28.99</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>30.77</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>32.4</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>-39.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <f>AVERAGE(A2:A4)</f>
+        <v>190.33333333333334</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <f>AVERAGE(B2:B4)</f>
+        <v>20.666666666666668</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <f>AVERAGE(C2:C4)</f>
+        <v>386.3333333333333</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <f>AVERAGE(D2:D4)</f>
+        <v>82.33333333333333</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <f>AVERAGE(E2:E4)</f>
+        <v>445.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <f>AVERAGE(F2:F4)</f>
+        <v>41.529999999999994</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <f>AVERAGE(G2:G4)</f>
+        <v>43.803333333333335</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <f>AVERAGE(H2:H4)</f>
+        <v>46.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <f>AVERAGE(I2:I4)</f>
+        <v>151.66666666666666</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -415,106 +756,106 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>488.0</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>56.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>556.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>34.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>1066.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>87.77</v>
-      </c>
-      <c r="G2" t="n" s="0">
-        <v>92.81</v>
-      </c>
-      <c r="H2" t="n" s="0">
-        <v>93.35</v>
-      </c>
-      <c r="I2" t="n" s="0">
-        <v>1033.0</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="0">
+        <v>49</v>
+      </c>
+      <c r="B2" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0">
+        <v>169</v>
+      </c>
+      <c r="D2" s="0">
+        <v>170</v>
+      </c>
+      <c r="E2" s="0">
+        <v>158</v>
+      </c>
+      <c r="F2" s="0">
+        <v>28.99</v>
+      </c>
+      <c r="G2" s="0">
+        <v>30.77</v>
+      </c>
+      <c r="H2" s="0">
+        <v>32.4</v>
+      </c>
+      <c r="I2" s="0">
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n" s="0">
-        <v>34.0</v>
+        <v>49.0</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>434.0</v>
+        <v>169.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>43.0</v>
+        <v>170.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>111.0</v>
+        <v>158.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>7.83</v>
+        <v>28.99</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>7.83</v>
+        <v>30.77</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>12.25</v>
+        <v>32.4</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>-539.0</v>
+        <v>-39.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
         <f>AVERAGE(A2:A3)</f>
-        <v>261.0</v>
+        <v>49.0</v>
       </c>
       <c r="B4" t="n" s="0">
         <f>AVERAGE(B2:B3)</f>
-        <v>28.0</v>
+        <v>6.0</v>
       </c>
       <c r="C4" t="n" s="0">
         <f>AVERAGE(C2:C3)</f>
-        <v>495.0</v>
+        <v>169.0</v>
       </c>
       <c r="D4" t="n" s="0">
         <f>AVERAGE(D2:D3)</f>
-        <v>38.5</v>
+        <v>170.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <f>AVERAGE(E2:E3)</f>
-        <v>588.5</v>
+        <v>158.0</v>
       </c>
       <c r="F4" t="n" s="0">
         <f>AVERAGE(F2:F3)</f>
-        <v>47.8</v>
+        <v>28.99</v>
       </c>
       <c r="G4" t="n" s="0">
         <f>AVERAGE(G2:G3)</f>
-        <v>50.32</v>
+        <v>30.77</v>
       </c>
       <c r="H4" t="n" s="0">
         <f>AVERAGE(H2:H3)</f>
-        <v>52.8</v>
+        <v>32.4</v>
       </c>
       <c r="I4" t="n" s="0">
         <f>AVERAGE(I2:I3)</f>
-        <v>247.0</v>
+        <v>-39.0</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/informe_GoldenStateWarriors.xlsx
+++ b/informe_GoldenStateWarriors.xlsx
@@ -16,6 +16,7 @@
     <sheet name="final" sheetId="1" r:id="rId1"/>
     <sheet name="Stephen Curry" sheetId="2" r:id="rId2"/>
     <sheet name="Draymond Green" sheetId="3" r:id="rId3"/>
+    <sheet name="Klay Thompson" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>TCA</t>
   </si>
@@ -490,6 +491,42 @@
       <c r="A3" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="B3" t="n" s="0">
+        <f>'Klay Thompson'!A3</f>
+        <v>51.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <f>'Klay Thompson'!B3</f>
+        <v>6.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <f>'Klay Thompson'!C3</f>
+        <v>256.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <f>'Klay Thompson'!D3</f>
+        <v>45.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <f>'Klay Thompson'!E3</f>
+        <v>153.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <f>'Klay Thompson'!F3</f>
+        <v>19.92</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <f>'Klay Thompson'!G3</f>
+        <v>21.09</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <f>'Klay Thompson'!H3</f>
+        <v>27.74</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <f>'Klay Thompson'!I3</f>
+        <v>-77.0</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
@@ -858,4 +895,116 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>19.92</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>21.09</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>27.74</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>-77.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <f>AVERAGE(A2:A2)</f>
+        <v>51.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <f>AVERAGE(B2:B2)</f>
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <f>AVERAGE(C2:C2)</f>
+        <v>256.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <f>AVERAGE(D2:D2)</f>
+        <v>45.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <f>AVERAGE(E2:E2)</f>
+        <v>153.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <f>AVERAGE(F2:F2)</f>
+        <v>19.92</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <f>AVERAGE(G2:G2)</f>
+        <v>21.09</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <f>AVERAGE(H2:H2)</f>
+        <v>27.74</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <f>AVERAGE(I2:I2)</f>
+        <v>-77.0</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/informe_GoldenStateWarriors.xlsx
+++ b/informe_GoldenStateWarriors.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
   <si>
     <t>TCA</t>
   </si>
@@ -533,40 +533,40 @@
         <v>13</v>
       </c>
       <c r="B4" t="n" s="0">
-        <f>'Draymond Green'!A4</f>
-        <v>49.0</v>
+        <f>'Draymond Green'!A5</f>
+        <v>82.66666666666667</v>
       </c>
       <c r="C4" t="n" s="0">
-        <f>'Draymond Green'!B4</f>
-        <v>6.0</v>
+        <f>'Draymond Green'!B5</f>
+        <v>5.666666666666667</v>
       </c>
       <c r="D4" t="n" s="0">
-        <f>'Draymond Green'!C4</f>
-        <v>169.0</v>
+        <f>'Draymond Green'!C5</f>
+        <v>189.33333333333334</v>
       </c>
       <c r="E4" t="n" s="0">
-        <f>'Draymond Green'!D4</f>
-        <v>170.0</v>
+        <f>'Draymond Green'!D5</f>
+        <v>127.66666666666667</v>
       </c>
       <c r="F4" t="n" s="0">
-        <f>'Draymond Green'!E4</f>
-        <v>158.0</v>
+        <f>'Draymond Green'!E5</f>
+        <v>221.33333333333334</v>
       </c>
       <c r="G4" t="n" s="0">
-        <f>'Draymond Green'!F4</f>
-        <v>28.99</v>
+        <f>'Draymond Green'!F5</f>
+        <v>41.06666666666666</v>
       </c>
       <c r="H4" t="n" s="0">
-        <f>'Draymond Green'!G4</f>
-        <v>30.77</v>
+        <f>'Draymond Green'!G5</f>
+        <v>42.61333333333334</v>
       </c>
       <c r="I4" t="n" s="0">
-        <f>'Draymond Green'!H4</f>
-        <v>32.4</v>
+        <f>'Draymond Green'!H5</f>
+        <v>44.9</v>
       </c>
       <c r="J4" t="n" s="0">
-        <f>'Draymond Green'!I4</f>
-        <v>-39.0</v>
+        <f>'Draymond Green'!I5</f>
+        <v>179.0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -758,7 +758,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,42 +853,71 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="0">
-        <f>AVERAGE(A2:A3)</f>
-        <v>49.0</v>
+        <v>150.0</v>
       </c>
       <c r="B4" t="n" s="0">
-        <f>AVERAGE(B2:B3)</f>
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <f>AVERAGE(C2:C3)</f>
-        <v>169.0</v>
+        <v>230.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <f>AVERAGE(D2:D3)</f>
-        <v>170.0</v>
+        <v>43.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <f>AVERAGE(E2:E3)</f>
-        <v>158.0</v>
+        <v>348.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <f>AVERAGE(F2:F3)</f>
-        <v>28.99</v>
+        <v>65.22</v>
       </c>
       <c r="G4" t="n" s="0">
-        <f>AVERAGE(G2:G3)</f>
-        <v>30.77</v>
+        <v>66.3</v>
       </c>
       <c r="H4" t="n" s="0">
-        <f>AVERAGE(H2:H3)</f>
-        <v>32.4</v>
+        <v>69.9</v>
       </c>
       <c r="I4" t="n" s="0">
-        <f>AVERAGE(I2:I3)</f>
-        <v>-39.0</v>
-      </c>
-      <c r="J4" t="s" s="0">
+        <v>615.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <f>AVERAGE(A2:A4)</f>
+        <v>82.66666666666667</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <f>AVERAGE(B2:B4)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <f>AVERAGE(C2:C4)</f>
+        <v>189.33333333333334</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <f>AVERAGE(D2:D4)</f>
+        <v>127.66666666666667</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <f>AVERAGE(E2:E4)</f>
+        <v>221.33333333333334</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <f>AVERAGE(F2:F4)</f>
+        <v>41.06666666666666</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <f>AVERAGE(G2:G4)</f>
+        <v>42.61333333333334</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <f>AVERAGE(H2:H4)</f>
+        <v>44.9</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <f>AVERAGE(I2:I4)</f>
+        <v>179.0</v>
+      </c>
+      <c r="J5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
